--- a/static/document/collections.xlsx
+++ b/static/document/collections.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,46 @@
   </si>
   <si>
     <t>https://www.google.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -547,6 +587,146 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -555,9 +735,19 @@
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
 </worksheet>
 </file>
 
